--- a/src/backend/the_only_excel.xlsx
+++ b/src/backend/the_only_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hlocal\UCM\Cursando\TFG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TFG\src\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC55944-608D-4C16-8377-06E9F9EED104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD015F-EABD-46ED-9519-0F3DCBB4D6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPSS" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="231">
   <si>
     <t>NHIS</t>
   </si>
@@ -1526,34 +1526,34 @@
   <dimension ref="A1:BQ270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AT249" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BR9" sqref="BR9:BS9"/>
+      <selection pane="bottomRight" activeCell="BM271" sqref="BM271"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.08203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="44" width="6.33203125" style="49" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.08203125" style="80" customWidth="1"/>
-    <col min="46" max="46" width="6.33203125" style="49" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.83203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.83203125" style="63" customWidth="1"/>
-    <col min="49" max="54" width="6.33203125" style="49" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="6.33203125" style="49" customWidth="1"/>
-    <col min="56" max="60" width="6.33203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="44" width="6.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.125" style="80" customWidth="1"/>
+    <col min="46" max="46" width="6.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.875" style="63" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.875" style="63" customWidth="1"/>
+    <col min="49" max="54" width="6.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="6.375" style="49" customWidth="1"/>
+    <col min="56" max="60" width="6.375" style="49" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="20.25" style="49" customWidth="1"/>
-    <col min="62" max="62" width="16.33203125" style="49" customWidth="1"/>
-    <col min="63" max="64" width="6.08203125" style="49"/>
-    <col min="65" max="65" width="6.9140625" customWidth="1"/>
-    <col min="66" max="67" width="6.08203125" style="49"/>
+    <col min="62" max="62" width="16.375" style="49" customWidth="1"/>
+    <col min="63" max="64" width="6.125" style="49"/>
+    <col min="65" max="65" width="6.875" customWidth="1"/>
+    <col min="66" max="67" width="6.125" style="49"/>
     <col min="68" max="68" width="11" style="49" customWidth="1"/>
-    <col min="69" max="16384" width="6.08203125" style="49"/>
+    <col min="69" max="16384" width="6.125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:69" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>82</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="57">
         <v>1</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="57">
         <v>2</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" s="57">
         <v>3</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" s="57">
         <v>4</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" s="57">
         <v>5</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" s="57">
         <v>6</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" s="57">
         <v>7</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" s="57">
         <v>8</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" s="57">
         <v>9</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" s="57">
         <v>10</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" s="57">
         <v>11</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" s="57">
         <v>12</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" s="57">
         <v>13</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" s="57">
         <v>14</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" s="57">
         <v>15</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A17" s="57">
         <v>16</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A18" s="57">
         <v>17</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A19" s="57">
         <v>18</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A20" s="57">
         <v>19</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A21" s="57">
         <v>20</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A22" s="57">
         <v>21</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A23" s="57">
         <v>22</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A24" s="57">
         <v>23</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A25" s="57">
         <v>24</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A26" s="57">
         <v>25</v>
       </c>
@@ -6947,8 +6947,8 @@
         <f>VLOOKUP(A26,Hoja1!A25:N294,8,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="BM26" t="s">
-        <v>122</v>
+      <c r="BM26">
+        <v>1</v>
       </c>
       <c r="BN26" s="49">
         <f>VLOOKUP(A26,Hoja1!A25:N294,10,FALSE)</f>
@@ -6967,7 +6967,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A27" s="57">
         <v>26</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A28" s="57">
         <v>27</v>
       </c>
@@ -7368,8 +7368,8 @@
         <f>VLOOKUP(A28,Hoja1!A27:N296,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM28" t="s">
-        <v>125</v>
+      <c r="BM28">
+        <v>2</v>
       </c>
       <c r="BN28" s="49">
         <f>VLOOKUP(A28,Hoja1!A27:N296,10,FALSE)</f>
@@ -7388,7 +7388,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A29" s="57">
         <v>28</v>
       </c>
@@ -7577,8 +7577,8 @@
         <f>VLOOKUP(A29,Hoja1!A28:N297,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM29" t="s">
-        <v>125</v>
+      <c r="BM29">
+        <v>2</v>
       </c>
       <c r="BN29" s="49">
         <f>VLOOKUP(A29,Hoja1!A28:N297,10,FALSE)</f>
@@ -7597,7 +7597,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A30" s="57">
         <v>29</v>
       </c>
@@ -7788,8 +7788,8 @@
         <f>VLOOKUP(A30,Hoja1!A29:N298,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM30" t="s">
-        <v>122</v>
+      <c r="BM30">
+        <v>1</v>
       </c>
       <c r="BN30" s="49">
         <f>VLOOKUP(A30,Hoja1!A29:N298,10,FALSE)</f>
@@ -7808,7 +7808,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A31" s="57">
         <v>30</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A32" s="57">
         <v>31</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A33" s="57">
         <v>32</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A34" s="57">
         <v>33</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A35" s="57">
         <v>34</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A36" s="57">
         <v>35</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A37" s="57">
         <v>36</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A38" s="57">
         <v>37</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A39" s="57">
         <v>38</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A40" s="57">
         <v>39</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A41" s="57">
         <v>40</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A42" s="57">
         <v>41</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A43" s="57">
         <v>42</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A44" s="57">
         <v>43</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A45" s="57">
         <v>44</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A46" s="57">
         <v>45</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A47" s="57">
         <v>46</v>
       </c>
@@ -11295,8 +11295,8 @@
         <f>VLOOKUP(A47,Hoja1!A46:N315,8,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="BM47" t="s">
-        <v>122</v>
+      <c r="BM47">
+        <v>1</v>
       </c>
       <c r="BN47" s="49">
         <f>VLOOKUP(A47,Hoja1!A46:N315,10,FALSE)</f>
@@ -11315,7 +11315,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A48" s="57">
         <v>47</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A49" s="57">
         <v>48</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A50" s="57">
         <v>49</v>
       </c>
@@ -11904,8 +11904,8 @@
         <f>VLOOKUP(A50,Hoja1!A49:N318,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM50" t="s">
-        <v>122</v>
+      <c r="BM50">
+        <v>1</v>
       </c>
       <c r="BN50" s="49" t="str">
         <f>VLOOKUP(A50,Hoja1!A49:N318,10,FALSE)</f>
@@ -11924,7 +11924,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A51" s="57">
         <v>50</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A52" s="57">
         <v>51</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A53" s="57">
         <v>52</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A54" s="57">
         <v>53</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A55" s="57">
         <v>54</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A56" s="57">
         <v>55</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A57" s="57">
         <v>56</v>
       </c>
@@ -13333,8 +13333,8 @@
         <f>VLOOKUP(A57,Hoja1!A56:N325,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM57" t="s">
-        <v>125</v>
+      <c r="BM57">
+        <v>2</v>
       </c>
       <c r="BN57" s="49">
         <f>VLOOKUP(A57,Hoja1!A56:N325,10,FALSE)</f>
@@ -13353,7 +13353,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A58" s="57">
         <v>57</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A59" s="57">
         <v>58</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A60" s="57">
         <v>59</v>
       </c>
@@ -13944,8 +13944,8 @@
         <f>VLOOKUP(A60,Hoja1!A59:N328,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM60" t="s">
-        <v>125</v>
+      <c r="BM60">
+        <v>2</v>
       </c>
       <c r="BN60" s="49">
         <f>VLOOKUP(A60,Hoja1!A59:N328,10,FALSE)</f>
@@ -13964,7 +13964,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A61" s="57">
         <v>60</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A62" s="57">
         <v>61</v>
       </c>
@@ -14349,8 +14349,8 @@
         <f>VLOOKUP(A62,Hoja1!A61:N330,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM62" t="s">
-        <v>122</v>
+      <c r="BM62">
+        <v>1</v>
       </c>
       <c r="BN62" s="49">
         <f>VLOOKUP(A62,Hoja1!A61:N330,10,FALSE)</f>
@@ -14369,7 +14369,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A63" s="57">
         <v>62</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A64" s="57">
         <v>63</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A65" s="57">
         <v>64</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A66" s="57">
         <v>65</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A67" s="57">
         <v>66</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A68" s="57">
         <v>67</v>
       </c>
@@ -15587,7 +15587,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A69" s="57">
         <v>68</v>
       </c>
@@ -15774,8 +15774,8 @@
         <f>VLOOKUP(A69,Hoja1!A68:N337,8,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="BM69" t="s">
-        <v>125</v>
+      <c r="BM69">
+        <v>2</v>
       </c>
       <c r="BN69" s="49">
         <f>VLOOKUP(A69,Hoja1!A68:N337,10,FALSE)</f>
@@ -15794,7 +15794,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="70" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A70" s="57">
         <v>69</v>
       </c>
@@ -15996,7 +15996,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="71" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A71" s="57">
         <v>70</v>
       </c>
@@ -16198,7 +16198,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="72" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A72" s="57">
         <v>71</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="73" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A73" s="57">
         <v>72</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="74" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A74" s="57">
         <v>73</v>
       </c>
@@ -16787,8 +16787,8 @@
         <f>VLOOKUP(A74,Hoja1!A73:N342,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM74" t="s">
-        <v>125</v>
+      <c r="BM74">
+        <v>2</v>
       </c>
       <c r="BN74" s="49">
         <f>VLOOKUP(A74,Hoja1!A73:N342,10,FALSE)</f>
@@ -16807,7 +16807,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="75" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A75" s="57">
         <v>74</v>
       </c>
@@ -16994,8 +16994,8 @@
         <f>VLOOKUP(A75,Hoja1!A74:N343,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM75" t="s">
-        <v>125</v>
+      <c r="BM75">
+        <v>2</v>
       </c>
       <c r="BN75" s="49">
         <f>VLOOKUP(A75,Hoja1!A74:N343,10,FALSE)</f>
@@ -17014,7 +17014,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="76" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A76" s="57">
         <v>75</v>
       </c>
@@ -17214,7 +17214,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="77" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A77" s="57">
         <v>76</v>
       </c>
@@ -17401,8 +17401,8 @@
         <f>VLOOKUP(A77,Hoja1!A76:N345,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM77" t="s">
-        <v>122</v>
+      <c r="BM77">
+        <v>1</v>
       </c>
       <c r="BN77" s="49">
         <f>VLOOKUP(A77,Hoja1!A76:N345,10,FALSE)</f>
@@ -17421,7 +17421,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="78" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A78" s="57">
         <v>77</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="79" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A79" s="57">
         <v>78</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="80" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A80" s="57">
         <v>79</v>
       </c>
@@ -18008,8 +18008,8 @@
         <f>VLOOKUP(A80,Hoja1!A79:N348,8,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="BM80" t="s">
-        <v>125</v>
+      <c r="BM80">
+        <v>2</v>
       </c>
       <c r="BN80" s="49">
         <f>VLOOKUP(A80,Hoja1!A79:N348,10,FALSE)</f>
@@ -18028,7 +18028,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="81" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A81" s="57">
         <v>80</v>
       </c>
@@ -18215,8 +18215,8 @@
         <f>VLOOKUP(A81,Hoja1!A80:N349,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM81" t="s">
-        <v>122</v>
+      <c r="BM81">
+        <v>1</v>
       </c>
       <c r="BN81" s="49">
         <f>VLOOKUP(A81,Hoja1!A80:N349,10,FALSE)</f>
@@ -18235,7 +18235,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="82" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A82" s="57">
         <v>81</v>
       </c>
@@ -18418,8 +18418,8 @@
         <f>VLOOKUP(A82,Hoja1!A81:N350,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM82" t="s">
-        <v>122</v>
+      <c r="BM82">
+        <v>1</v>
       </c>
       <c r="BN82" s="49">
         <f>VLOOKUP(A82,Hoja1!A81:N350,10,FALSE)</f>
@@ -18438,7 +18438,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="83" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A83" s="57">
         <v>82</v>
       </c>
@@ -18601,8 +18601,8 @@
         <f>VLOOKUP(A83,Hoja1!A82:N351,8,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="BM83" t="s">
-        <v>125</v>
+      <c r="BM83">
+        <v>2</v>
       </c>
       <c r="BN83" s="49">
         <f>VLOOKUP(A83,Hoja1!A82:N351,10,FALSE)</f>
@@ -18621,7 +18621,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="84" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A84" s="57">
         <v>83</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="85" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A85" s="57">
         <v>84</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="86" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A86" s="57">
         <v>85</v>
       </c>
@@ -19150,8 +19150,8 @@
         <f>VLOOKUP(A86,Hoja1!A85:N354,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM86" t="s">
-        <v>122</v>
+      <c r="BM86">
+        <v>1</v>
       </c>
       <c r="BN86" s="49">
         <f>VLOOKUP(A86,Hoja1!A85:N354,10,FALSE)</f>
@@ -19170,7 +19170,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="87" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A87" s="57">
         <v>86</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A88" s="57">
         <v>87</v>
       </c>
@@ -19534,7 +19534,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="89" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A89" s="57">
         <v>88</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="90" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A90" s="57">
         <v>89</v>
       </c>
@@ -19896,7 +19896,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="91" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A91" s="57">
         <v>90</v>
       </c>
@@ -20076,7 +20076,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="92" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A92" s="57">
         <v>91</v>
       </c>
@@ -20256,7 +20256,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="93" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A93" s="57">
         <v>92</v>
       </c>
@@ -20438,7 +20438,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="94" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A94" s="57">
         <v>93</v>
       </c>
@@ -20599,8 +20599,8 @@
         <f>VLOOKUP(A94,Hoja1!A93:N362,8,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="BM94" t="s">
-        <v>125</v>
+      <c r="BM94">
+        <v>2</v>
       </c>
       <c r="BN94" s="49">
         <f>VLOOKUP(A94,Hoja1!A93:N362,10,FALSE)</f>
@@ -20619,7 +20619,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="95" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A95" s="57">
         <v>94</v>
       </c>
@@ -20803,7 +20803,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="96" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A96" s="57">
         <v>95</v>
       </c>
@@ -20985,7 +20985,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="97" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A97" s="57">
         <v>96</v>
       </c>
@@ -21163,7 +21163,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="98" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A98" s="57">
         <v>97</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="99" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A99" s="57">
         <v>98</v>
       </c>
@@ -21527,7 +21527,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="100" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A100" s="57">
         <v>99</v>
       </c>
@@ -21690,8 +21690,8 @@
         <f>VLOOKUP(A100,Hoja1!A99:N368,8,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="BM100" t="s">
-        <v>122</v>
+      <c r="BM100">
+        <v>1</v>
       </c>
       <c r="BN100" s="49">
         <f>VLOOKUP(A100,Hoja1!A99:N368,10,FALSE)</f>
@@ -21710,7 +21710,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="101" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A101" s="57">
         <v>100</v>
       </c>
@@ -21888,7 +21888,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="102" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A102" s="57">
         <v>101</v>
       </c>
@@ -22070,7 +22070,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="103" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A103" s="57">
         <v>102</v>
       </c>
@@ -22248,7 +22248,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="104" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A104" s="57">
         <v>103</v>
       </c>
@@ -22432,7 +22432,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="105" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A105" s="57">
         <v>104</v>
       </c>
@@ -22612,7 +22612,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="106" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A106" s="57">
         <v>105</v>
       </c>
@@ -22796,7 +22796,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="107" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A107" s="57">
         <v>106</v>
       </c>
@@ -22978,7 +22978,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="108" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A108" s="57">
         <v>107</v>
       </c>
@@ -23160,7 +23160,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="109" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A109" s="57">
         <v>108</v>
       </c>
@@ -23344,7 +23344,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="110" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A110" s="57">
         <v>109</v>
       </c>
@@ -23509,8 +23509,8 @@
         <f>VLOOKUP(A110,Hoja1!A109:N378,8,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="BM110" t="s">
-        <v>122</v>
+      <c r="BM110">
+        <v>1</v>
       </c>
       <c r="BN110" s="49">
         <f>VLOOKUP(A110,Hoja1!A109:N378,10,FALSE)</f>
@@ -23529,7 +23529,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="111" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A111" s="57">
         <v>110</v>
       </c>
@@ -23709,7 +23709,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="112" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A112" s="57">
         <v>111</v>
       </c>
@@ -23891,7 +23891,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="113" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A113" s="57">
         <v>112</v>
       </c>
@@ -24075,7 +24075,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="114" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A114" s="57">
         <v>113</v>
       </c>
@@ -24240,8 +24240,8 @@
         <f>VLOOKUP(A114,Hoja1!A113:N382,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM114" t="s">
-        <v>125</v>
+      <c r="BM114">
+        <v>2</v>
       </c>
       <c r="BN114" s="49">
         <f>VLOOKUP(A114,Hoja1!A113:N382,10,FALSE)</f>
@@ -24260,7 +24260,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="115" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A115" s="57">
         <v>114</v>
       </c>
@@ -24425,8 +24425,8 @@
         <f>VLOOKUP(A115,Hoja1!A114:N383,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM115" t="s">
-        <v>122</v>
+      <c r="BM115">
+        <v>1</v>
       </c>
       <c r="BN115" s="49">
         <f>VLOOKUP(A115,Hoja1!A114:N383,10,FALSE)</f>
@@ -24445,7 +24445,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="116" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A116" s="57">
         <v>115</v>
       </c>
@@ -24627,7 +24627,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="117" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A117" s="57">
         <v>116</v>
       </c>
@@ -24807,7 +24807,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="118" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A118" s="57">
         <v>117</v>
       </c>
@@ -24989,7 +24989,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="119" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A119" s="57">
         <v>118</v>
       </c>
@@ -25173,7 +25173,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="120" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A120" s="57">
         <v>119</v>
       </c>
@@ -25355,7 +25355,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="121" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A121" s="57">
         <v>120</v>
       </c>
@@ -25537,7 +25537,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="122" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A122" s="57">
         <v>121</v>
       </c>
@@ -25721,7 +25721,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="123" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A123" s="57">
         <v>122</v>
       </c>
@@ -25905,7 +25905,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="124" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A124" s="57">
         <v>123</v>
       </c>
@@ -26089,7 +26089,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="125" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A125" s="57">
         <v>124</v>
       </c>
@@ -26271,7 +26271,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="126" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A126" s="57">
         <v>125</v>
       </c>
@@ -26451,7 +26451,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="127" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A127" s="57">
         <v>126</v>
       </c>
@@ -26633,7 +26633,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="128" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A128" s="57">
         <v>127</v>
       </c>
@@ -26817,7 +26817,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="129" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A129" s="57">
         <v>128</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="130" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A130" s="57">
         <v>129</v>
       </c>
@@ -27183,7 +27183,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="131" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A131" s="57">
         <v>130</v>
       </c>
@@ -27365,7 +27365,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="132" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A132" s="57">
         <v>131</v>
       </c>
@@ -27549,7 +27549,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="133" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A133" s="57">
         <v>132</v>
       </c>
@@ -27731,7 +27731,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="134" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A134" s="57">
         <v>133</v>
       </c>
@@ -27913,7 +27913,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="135" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A135" s="57">
         <v>134</v>
       </c>
@@ -28093,7 +28093,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="136" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A136" s="57">
         <v>135</v>
       </c>
@@ -28273,7 +28273,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="137" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A137" s="57">
         <v>136</v>
       </c>
@@ -28455,7 +28455,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="138" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A138" s="57">
         <v>137</v>
       </c>
@@ -28637,7 +28637,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="139" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A139" s="57">
         <v>138</v>
       </c>
@@ -28819,7 +28819,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="140" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A140" s="57">
         <v>139</v>
       </c>
@@ -28999,7 +28999,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="141" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A141" s="57">
         <v>140</v>
       </c>
@@ -29181,7 +29181,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="142" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A142" s="57">
         <v>141</v>
       </c>
@@ -29363,7 +29363,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="143" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A143" s="57">
         <v>142</v>
       </c>
@@ -29543,7 +29543,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="144" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A144" s="57">
         <v>143</v>
       </c>
@@ -29723,7 +29723,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="145" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A145" s="57">
         <v>144</v>
       </c>
@@ -29905,7 +29905,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="146" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A146" s="57">
         <v>145</v>
       </c>
@@ -30070,8 +30070,8 @@
         <f>VLOOKUP(A146,Hoja1!A145:N414,8,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="BM146" t="s">
-        <v>122</v>
+      <c r="BM146">
+        <v>1</v>
       </c>
       <c r="BN146" s="49">
         <f>VLOOKUP(A146,Hoja1!A145:N414,10,FALSE)</f>
@@ -30090,7 +30090,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="147" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A147" s="57">
         <v>146</v>
       </c>
@@ -30270,7 +30270,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="148" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A148" s="57">
         <v>147</v>
       </c>
@@ -30435,8 +30435,8 @@
         <f>VLOOKUP(A148,Hoja1!A147:N416,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM148" t="s">
-        <v>125</v>
+      <c r="BM148">
+        <v>2</v>
       </c>
       <c r="BN148" s="49">
         <f>VLOOKUP(A148,Hoja1!A147:N416,10,FALSE)</f>
@@ -30455,7 +30455,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="149" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A149" s="57">
         <v>148</v>
       </c>
@@ -30635,7 +30635,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="150" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A150" s="57">
         <v>149</v>
       </c>
@@ -30800,8 +30800,8 @@
         <f>VLOOKUP(A150,Hoja1!A149:N418,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM150" t="s">
-        <v>125</v>
+      <c r="BM150">
+        <v>2</v>
       </c>
       <c r="BN150" s="49">
         <f>VLOOKUP(A150,Hoja1!A149:N418,10,FALSE)</f>
@@ -30820,7 +30820,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="151" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A151" s="57">
         <v>150</v>
       </c>
@@ -31004,7 +31004,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="152" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A152" s="57">
         <v>151</v>
       </c>
@@ -31184,7 +31184,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="153" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A153" s="57">
         <v>152</v>
       </c>
@@ -31349,8 +31349,8 @@
         <f>VLOOKUP(A153,Hoja1!A152:N421,8,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="BM153" t="s">
-        <v>125</v>
+      <c r="BM153">
+        <v>2</v>
       </c>
       <c r="BN153" s="49">
         <f>VLOOKUP(A153,Hoja1!A152:N421,10,FALSE)</f>
@@ -31369,7 +31369,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="154" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A154" s="57">
         <v>153</v>
       </c>
@@ -31549,7 +31549,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="155" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A155" s="57">
         <v>154</v>
       </c>
@@ -31731,7 +31731,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="156" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A156" s="57">
         <v>155</v>
       </c>
@@ -31898,8 +31898,8 @@
         <f>VLOOKUP(A156,Hoja1!A155:N424,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM156" t="s">
-        <v>125</v>
+      <c r="BM156">
+        <v>2</v>
       </c>
       <c r="BN156" s="49">
         <f>VLOOKUP(A156,Hoja1!A155:N424,10,FALSE)</f>
@@ -31918,7 +31918,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="157" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A157" s="57">
         <v>156</v>
       </c>
@@ -32102,7 +32102,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="158" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A158" s="57">
         <v>157</v>
       </c>
@@ -32267,8 +32267,8 @@
         <f>VLOOKUP(A158,Hoja1!A157:N426,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM158" t="s">
-        <v>122</v>
+      <c r="BM158">
+        <v>1</v>
       </c>
       <c r="BN158" s="49">
         <f>VLOOKUP(A158,Hoja1!A157:N426,10,FALSE)</f>
@@ -32287,7 +32287,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="159" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A159" s="57">
         <v>158</v>
       </c>
@@ -32469,7 +32469,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="160" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A160" s="57">
         <v>159</v>
       </c>
@@ -32636,8 +32636,8 @@
         <f>VLOOKUP(A160,Hoja1!A159:N428,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM160" t="s">
-        <v>122</v>
+      <c r="BM160">
+        <v>1</v>
       </c>
       <c r="BN160" s="49">
         <f>VLOOKUP(A160,Hoja1!A159:N428,10,FALSE)</f>
@@ -32656,7 +32656,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="161" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A161" s="57">
         <v>160</v>
       </c>
@@ -32840,7 +32840,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="162" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A162" s="57">
         <v>161</v>
       </c>
@@ -33020,7 +33020,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="163" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A163" s="57">
         <v>162</v>
       </c>
@@ -33204,7 +33204,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="164" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A164" s="57">
         <v>163</v>
       </c>
@@ -33386,7 +33386,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="165" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A165" s="57">
         <v>164</v>
       </c>
@@ -33568,7 +33568,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="166" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A166" s="57">
         <v>165</v>
       </c>
@@ -33748,7 +33748,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="167" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A167" s="57">
         <v>166</v>
       </c>
@@ -33930,7 +33930,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="168" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A168" s="57">
         <v>167</v>
       </c>
@@ -34095,8 +34095,8 @@
         <f>VLOOKUP(A168,Hoja1!A167:N436,8,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="BM168" t="s">
-        <v>122</v>
+      <c r="BM168">
+        <v>1</v>
       </c>
       <c r="BN168" s="49">
         <f>VLOOKUP(A168,Hoja1!A167:N436,10,FALSE)</f>
@@ -34115,7 +34115,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="169" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A169" s="57">
         <v>168</v>
       </c>
@@ -34299,7 +34299,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="170" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A170" s="57">
         <v>169</v>
       </c>
@@ -34466,8 +34466,8 @@
         <f>VLOOKUP(A170,Hoja1!A169:N438,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM170" t="s">
-        <v>122</v>
+      <c r="BM170">
+        <v>1</v>
       </c>
       <c r="BN170" s="49">
         <f>VLOOKUP(A170,Hoja1!A169:N438,10,FALSE)</f>
@@ -34486,7 +34486,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="171" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A171" s="57">
         <v>170</v>
       </c>
@@ -34653,8 +34653,8 @@
         <f>VLOOKUP(A171,Hoja1!A170:N439,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM171" t="s">
-        <v>125</v>
+      <c r="BM171">
+        <v>2</v>
       </c>
       <c r="BN171" s="49">
         <f>VLOOKUP(A171,Hoja1!A170:N439,10,FALSE)</f>
@@ -34673,7 +34673,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="172" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A172" s="57">
         <v>171</v>
       </c>
@@ -34853,7 +34853,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="173" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A173" s="57">
         <v>172</v>
       </c>
@@ -35033,7 +35033,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="174" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A174" s="57">
         <v>173</v>
       </c>
@@ -35198,8 +35198,8 @@
         <f>VLOOKUP(A174,Hoja1!A173:N442,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM174" t="s">
-        <v>122</v>
+      <c r="BM174">
+        <v>1</v>
       </c>
       <c r="BN174" s="49">
         <f>VLOOKUP(A174,Hoja1!A173:N442,10,FALSE)</f>
@@ -35218,7 +35218,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="175" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A175" s="57">
         <v>174</v>
       </c>
@@ -35400,7 +35400,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="176" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A176" s="57">
         <v>175</v>
       </c>
@@ -35582,7 +35582,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="177" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A177" s="57">
         <v>176</v>
       </c>
@@ -35762,7 +35762,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="178" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A178" s="57">
         <v>177</v>
       </c>
@@ -35944,7 +35944,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="179" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A179" s="57">
         <v>178</v>
       </c>
@@ -36124,7 +36124,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="180" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A180" s="57">
         <v>179</v>
       </c>
@@ -36289,8 +36289,8 @@
         <f>VLOOKUP(A180,Hoja1!A179:N448,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM180" t="s">
-        <v>122</v>
+      <c r="BM180">
+        <v>1</v>
       </c>
       <c r="BN180" s="49">
         <f>VLOOKUP(A180,Hoja1!A179:N448,10,FALSE)</f>
@@ -36309,7 +36309,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="181" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A181" s="57">
         <v>180</v>
       </c>
@@ -36491,7 +36491,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="182" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A182" s="57">
         <v>181</v>
       </c>
@@ -36673,7 +36673,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="183" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A183" s="57">
         <v>182</v>
       </c>
@@ -36855,7 +36855,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="184" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A184" s="57">
         <v>183</v>
       </c>
@@ -37037,7 +37037,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="185" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A185" s="57">
         <v>184</v>
       </c>
@@ -37221,7 +37221,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="186" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A186" s="57">
         <v>185</v>
       </c>
@@ -37388,8 +37388,8 @@
         <f>VLOOKUP(A186,Hoja1!A185:N454,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM186" t="s">
-        <v>125</v>
+      <c r="BM186">
+        <v>2</v>
       </c>
       <c r="BN186" s="49">
         <f>VLOOKUP(A186,Hoja1!A185:N454,10,FALSE)</f>
@@ -37408,7 +37408,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="187" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A187" s="57">
         <v>186</v>
       </c>
@@ -37573,8 +37573,8 @@
         <f>VLOOKUP(A187,Hoja1!A186:N455,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM187" t="s">
-        <v>122</v>
+      <c r="BM187">
+        <v>1</v>
       </c>
       <c r="BN187" s="49">
         <f>VLOOKUP(A187,Hoja1!A186:N455,10,FALSE)</f>
@@ -37593,7 +37593,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="188" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A188" s="57">
         <v>187</v>
       </c>
@@ -37775,7 +37775,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="189" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A189" s="57">
         <v>188</v>
       </c>
@@ -37957,7 +37957,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="190" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A190" s="57">
         <v>189</v>
       </c>
@@ -38141,7 +38141,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="191" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A191" s="57">
         <v>190</v>
       </c>
@@ -38308,8 +38308,8 @@
         <f>VLOOKUP(A191,Hoja1!A190:N459,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM191" t="s">
-        <v>122</v>
+      <c r="BM191">
+        <v>1</v>
       </c>
       <c r="BN191" s="49">
         <f>VLOOKUP(A191,Hoja1!A190:N459,10,FALSE)</f>
@@ -38328,7 +38328,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="192" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A192" s="57">
         <v>191</v>
       </c>
@@ -38510,7 +38510,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="193" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A193" s="57">
         <v>192</v>
       </c>
@@ -38692,7 +38692,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="194" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A194" s="57">
         <v>193</v>
       </c>
@@ -38857,8 +38857,8 @@
         <f>VLOOKUP(A194,Hoja1!A193:N462,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM194" t="s">
-        <v>125</v>
+      <c r="BM194">
+        <v>2</v>
       </c>
       <c r="BN194" s="49">
         <f>VLOOKUP(A194,Hoja1!A193:N462,10,FALSE)</f>
@@ -38877,7 +38877,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="195" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A195" s="57">
         <v>194</v>
       </c>
@@ -39042,8 +39042,8 @@
         <f>VLOOKUP(A195,Hoja1!A194:N463,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM195" t="s">
-        <v>125</v>
+      <c r="BM195">
+        <v>2</v>
       </c>
       <c r="BN195" s="49">
         <f>VLOOKUP(A195,Hoja1!A194:N463,10,FALSE)</f>
@@ -39062,7 +39062,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="196" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A196" s="57">
         <v>195</v>
       </c>
@@ -39242,7 +39242,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="197" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A197" s="57">
         <v>196</v>
       </c>
@@ -39409,8 +39409,8 @@
         <f>VLOOKUP(A197,Hoja1!A196:N465,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM197" t="s">
-        <v>125</v>
+      <c r="BM197">
+        <v>2</v>
       </c>
       <c r="BN197" s="49">
         <f>VLOOKUP(A197,Hoja1!A196:N465,10,FALSE)</f>
@@ -39429,7 +39429,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="198" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A198" s="57">
         <v>197</v>
       </c>
@@ -39611,7 +39611,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="199" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A199" s="57">
         <v>198</v>
       </c>
@@ -39793,7 +39793,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="200" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A200" s="57">
         <v>199</v>
       </c>
@@ -39973,7 +39973,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="201" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A201" s="57">
         <v>200</v>
       </c>
@@ -40155,7 +40155,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="202" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A202" s="57">
         <v>201</v>
       </c>
@@ -40339,7 +40339,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="203" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A203" s="57">
         <v>202</v>
       </c>
@@ -40521,7 +40521,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="204" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A204" s="57">
         <v>203</v>
       </c>
@@ -40703,7 +40703,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="205" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A205" s="57">
         <v>204</v>
       </c>
@@ -40870,8 +40870,8 @@
         <f>VLOOKUP(A205,Hoja1!A204:N473,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM205" t="s">
-        <v>125</v>
+      <c r="BM205">
+        <v>2</v>
       </c>
       <c r="BN205" s="49">
         <f>VLOOKUP(A205,Hoja1!A204:N473,10,FALSE)</f>
@@ -40890,7 +40890,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="206" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A206" s="57">
         <v>205</v>
       </c>
@@ -41055,8 +41055,8 @@
         <f>VLOOKUP(A206,Hoja1!A205:N474,8,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="BM206" t="s">
-        <v>122</v>
+      <c r="BM206">
+        <v>1</v>
       </c>
       <c r="BN206" s="49">
         <f>VLOOKUP(A206,Hoja1!A205:N474,10,FALSE)</f>
@@ -41075,7 +41075,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="207" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A207" s="57">
         <v>206</v>
       </c>
@@ -41257,7 +41257,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="208" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A208" s="57">
         <v>207</v>
       </c>
@@ -41441,7 +41441,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="209" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A209" s="57">
         <v>208</v>
       </c>
@@ -41625,7 +41625,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="210" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A210" s="57">
         <v>209</v>
       </c>
@@ -41807,7 +41807,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="211" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A211" s="57">
         <v>210</v>
       </c>
@@ -41989,7 +41989,7 @@
         <v>0.055</v>
       </c>
     </row>
-    <row r="212" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A212" s="57">
         <v>211</v>
       </c>
@@ -42171,7 +42171,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="213" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A213" s="57">
         <v>212</v>
       </c>
@@ -42351,7 +42351,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="214" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A214" s="57">
         <v>213</v>
       </c>
@@ -42533,7 +42533,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="215" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A215" s="57">
         <v>214</v>
       </c>
@@ -42715,7 +42715,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="216" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A216" s="57">
         <v>215</v>
       </c>
@@ -42899,7 +42899,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="217" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A217" s="57">
         <v>216</v>
       </c>
@@ -43081,7 +43081,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="218" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A218" s="57">
         <v>217</v>
       </c>
@@ -43261,7 +43261,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="219" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A219" s="57">
         <v>218</v>
       </c>
@@ -43428,8 +43428,8 @@
         <f>VLOOKUP(A219,Hoja1!A218:N487,8,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="BM219" t="s">
-        <v>122</v>
+      <c r="BM219">
+        <v>1</v>
       </c>
       <c r="BN219" s="49">
         <f>VLOOKUP(A219,Hoja1!A218:N487,10,FALSE)</f>
@@ -43448,7 +43448,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="220" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A220" s="57">
         <v>219</v>
       </c>
@@ -43630,7 +43630,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="221" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A221" s="57">
         <v>220</v>
       </c>
@@ -43793,8 +43793,8 @@
         <f>VLOOKUP(A221,Hoja1!A220:N489,8,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="BM221" t="s">
-        <v>125</v>
+      <c r="BM221">
+        <v>2</v>
       </c>
       <c r="BN221" s="49">
         <f>VLOOKUP(A221,Hoja1!A220:N489,10,FALSE)</f>
@@ -43813,7 +43813,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="222" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A222" s="57">
         <v>221</v>
       </c>
@@ -43997,7 +43997,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="223" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A223" s="57">
         <v>222</v>
       </c>
@@ -44177,7 +44177,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="224" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A224" s="57">
         <v>223</v>
       </c>
@@ -44359,7 +44359,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="225" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A225" s="57">
         <v>224</v>
       </c>
@@ -44541,7 +44541,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="226" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A226" s="57">
         <v>225</v>
       </c>
@@ -44725,7 +44725,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="227" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A227" s="57">
         <v>226</v>
       </c>
@@ -44907,7 +44907,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="228" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A228" s="57">
         <v>227</v>
       </c>
@@ -45089,7 +45089,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="229" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A229" s="57">
         <v>228</v>
       </c>
@@ -45271,7 +45271,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="230" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A230" s="57">
         <v>229</v>
       </c>
@@ -45453,7 +45453,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="231" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A231" s="57">
         <v>230</v>
       </c>
@@ -45635,7 +45635,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="232" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A232" s="57">
         <v>231</v>
       </c>
@@ -45819,7 +45819,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="233" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A233" s="57">
         <v>232</v>
       </c>
@@ -46003,7 +46003,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="234" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A234" s="57">
         <v>233</v>
       </c>
@@ -46187,7 +46187,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="235" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A235" s="57">
         <v>234</v>
       </c>
@@ -46371,7 +46371,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="236" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A236" s="57">
         <v>235</v>
       </c>
@@ -46553,7 +46553,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="237" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A237" s="57">
         <v>236</v>
       </c>
@@ -46731,7 +46731,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="238" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A238" s="57">
         <v>237</v>
       </c>
@@ -46911,7 +46911,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="239" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A239" s="57">
         <v>238</v>
       </c>
@@ -47093,7 +47093,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="240" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A240" s="57">
         <v>239</v>
       </c>
@@ -47277,7 +47277,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="241" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A241" s="57">
         <v>240</v>
       </c>
@@ -47457,7 +47457,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="242" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A242" s="57">
         <v>241</v>
       </c>
@@ -47639,7 +47639,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="243" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A243" s="57">
         <v>242</v>
       </c>
@@ -47819,7 +47819,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="244" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A244" s="57">
         <v>243</v>
       </c>
@@ -48001,7 +48001,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="245" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A245" s="57">
         <v>244</v>
       </c>
@@ -48183,7 +48183,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="246" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A246" s="57">
         <v>245</v>
       </c>
@@ -48365,7 +48365,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="247" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A247" s="57">
         <v>246</v>
       </c>
@@ -48530,8 +48530,8 @@
         <f>VLOOKUP(A247,Hoja1!A246:N515,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM247" t="s">
-        <v>122</v>
+      <c r="BM247">
+        <v>1</v>
       </c>
       <c r="BN247" s="49">
         <f>VLOOKUP(A247,Hoja1!A246:N515,10,FALSE)</f>
@@ -48550,7 +48550,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="248" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A248" s="57">
         <v>247</v>
       </c>
@@ -48732,7 +48732,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="249" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A249" s="57">
         <v>248</v>
       </c>
@@ -48899,8 +48899,8 @@
         <f>VLOOKUP(A249,Hoja1!A248:N517,8,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="BM249" t="s">
-        <v>122</v>
+      <c r="BM249">
+        <v>1</v>
       </c>
       <c r="BN249" s="49">
         <f>VLOOKUP(A249,Hoja1!A248:N517,10,FALSE)</f>
@@ -48919,7 +48919,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="250" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A250" s="57">
         <v>249</v>
       </c>
@@ -49101,7 +49101,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="251" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A251" s="57">
         <v>250</v>
       </c>
@@ -49283,7 +49283,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="252" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A252" s="57">
         <v>251</v>
       </c>
@@ -49465,7 +49465,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="253" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A253" s="57">
         <v>252</v>
       </c>
@@ -49647,7 +49647,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="254" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A254" s="57">
         <v>253</v>
       </c>
@@ -49849,7 +49849,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="255" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A255" s="57">
         <v>254</v>
       </c>
@@ -50055,7 +50055,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="256" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A256" s="57">
         <v>255</v>
       </c>
@@ -50257,7 +50257,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="257" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A257" s="57">
         <v>256</v>
       </c>
@@ -50463,7 +50463,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="258" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A258" s="57">
         <v>257</v>
       </c>
@@ -50665,7 +50665,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="259" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A259" s="57">
         <v>258</v>
       </c>
@@ -50869,7 +50869,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="260" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A260" s="57">
         <v>259</v>
       </c>
@@ -51073,7 +51073,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="261" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A261" s="57">
         <v>260</v>
       </c>
@@ -51260,8 +51260,8 @@
         <f>VLOOKUP(A261,Hoja1!A260:N529,8,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="BM261" t="s">
-        <v>125</v>
+      <c r="BM261">
+        <v>2</v>
       </c>
       <c r="BN261" s="49">
         <f>VLOOKUP(A261,Hoja1!A260:N529,10,FALSE)</f>
@@ -51280,7 +51280,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="262" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A262" s="57">
         <v>261</v>
       </c>
@@ -51486,7 +51486,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="263" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A263" s="57">
         <v>262</v>
       </c>
@@ -51692,7 +51692,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="264" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A264" s="57">
         <v>263</v>
       </c>
@@ -51894,7 +51894,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="265" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A265" s="57">
         <v>264</v>
       </c>
@@ -52100,7 +52100,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="266" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A266" s="57">
         <v>265</v>
       </c>
@@ -52304,7 +52304,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="267" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A267" s="57">
         <v>266</v>
       </c>
@@ -52508,7 +52508,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="268" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A268" s="57">
         <v>267</v>
       </c>
@@ -52712,7 +52712,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="269" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A269" s="57">
         <v>268</v>
       </c>
@@ -52918,7 +52918,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="270" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A270" s="57">
         <v>269</v>
       </c>
@@ -53135,9 +53135,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -53315,7 +53315,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>111961</v>
       </c>
@@ -53488,7 +53488,7 @@
       </c>
       <c r="BI2" s="38"/>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>112633</v>
       </c>
@@ -53663,7 +53663,7 @@
       </c>
       <c r="BI3" s="38"/>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>135095</v>
       </c>
@@ -53840,7 +53840,7 @@
       </c>
       <c r="BI4" s="39"/>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>138840</v>
       </c>
@@ -54011,7 +54011,7 @@
       </c>
       <c r="BI5" s="38"/>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>141841</v>
       </c>
@@ -54188,7 +54188,7 @@
       </c>
       <c r="BI6" s="38"/>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>145625</v>
       </c>
@@ -54361,7 +54361,7 @@
       </c>
       <c r="BI7" s="38"/>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>145854</v>
       </c>
@@ -54536,7 +54536,7 @@
       </c>
       <c r="BI8" s="38"/>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>147779</v>
       </c>
@@ -54707,7 +54707,7 @@
       </c>
       <c r="BI9" s="38"/>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>150717</v>
       </c>
@@ -54876,7 +54876,7 @@
       </c>
       <c r="BI10" s="38"/>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>152872</v>
       </c>
@@ -55047,7 +55047,7 @@
       </c>
       <c r="BI11" s="38"/>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>152924</v>
       </c>
@@ -55220,7 +55220,7 @@
       </c>
       <c r="BI12" s="38"/>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>153267</v>
       </c>
@@ -55393,7 +55393,7 @@
       </c>
       <c r="BI13" s="38"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>159797</v>
       </c>
@@ -55566,7 +55566,7 @@
       </c>
       <c r="BI14" s="38"/>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>162184</v>
       </c>
@@ -55737,7 +55737,7 @@
       </c>
       <c r="BI15" s="38"/>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>202727</v>
       </c>
@@ -55908,7 +55908,7 @@
       </c>
       <c r="BI16" s="38"/>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>204843</v>
       </c>
@@ -56083,7 +56083,7 @@
       </c>
       <c r="BI17" s="38"/>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>205451</v>
       </c>
@@ -56258,7 +56258,7 @@
       </c>
       <c r="BI18" s="38"/>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>206255</v>
       </c>
@@ -56431,7 +56431,7 @@
       </c>
       <c r="BI19" s="38"/>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>208124</v>
       </c>
@@ -56602,7 +56602,7 @@
       </c>
       <c r="BI20" s="38"/>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>215192</v>
       </c>
@@ -56775,7 +56775,7 @@
       </c>
       <c r="BI21" s="38"/>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>315316</v>
       </c>
@@ -56948,7 +56948,7 @@
       </c>
       <c r="BI22" s="38"/>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>315726</v>
       </c>
@@ -57123,7 +57123,7 @@
       </c>
       <c r="BI23" s="38"/>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>317743</v>
       </c>
@@ -57298,7 +57298,7 @@
       </c>
       <c r="BI24" s="38"/>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>317971</v>
       </c>
@@ -57471,7 +57471,7 @@
       </c>
       <c r="BI25" s="38"/>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>318381</v>
       </c>
@@ -57646,7 +57646,7 @@
       </c>
       <c r="BI26" s="38"/>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>321339</v>
       </c>
@@ -57819,7 +57819,7 @@
       </c>
       <c r="BI27" s="38"/>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>325006</v>
       </c>
@@ -57994,7 +57994,7 @@
       </c>
       <c r="BI28" s="38"/>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>325202</v>
       </c>
@@ -58165,7 +58165,7 @@
       </c>
       <c r="BI29" s="38"/>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>328963</v>
       </c>
@@ -58338,7 +58338,7 @@
       </c>
       <c r="BI30" s="38"/>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>341447</v>
       </c>
@@ -58511,7 +58511,7 @@
       </c>
       <c r="BI31" s="38"/>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>376507</v>
       </c>
@@ -58682,7 +58682,7 @@
       </c>
       <c r="BI32" s="38"/>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>385030</v>
       </c>
@@ -58857,7 +58857,7 @@
       </c>
       <c r="BI33" s="38"/>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>391428</v>
       </c>
@@ -59026,7 +59026,7 @@
       </c>
       <c r="BI34" s="38"/>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>600408</v>
       </c>
@@ -59197,7 +59197,7 @@
       </c>
       <c r="BI35" s="38"/>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>601760</v>
       </c>
@@ -59372,7 +59372,7 @@
       </c>
       <c r="BI36" s="38"/>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>613641</v>
       </c>
@@ -59549,7 +59549,7 @@
       </c>
       <c r="BI37" s="38"/>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>621865</v>
       </c>
@@ -59718,7 +59718,7 @@
       </c>
       <c r="BI38" s="38"/>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>623011</v>
       </c>
@@ -59891,7 +59891,7 @@
       </c>
       <c r="BI39" s="38"/>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>628084</v>
       </c>
@@ -60064,7 +60064,7 @@
       </c>
       <c r="BI40" s="38"/>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>641471</v>
       </c>
@@ -60239,7 +60239,7 @@
       </c>
       <c r="BI41" s="38"/>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>643695</v>
       </c>
@@ -60410,7 +60410,7 @@
       </c>
       <c r="BI42" s="38"/>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>902902</v>
       </c>
@@ -60585,7 +60585,7 @@
       </c>
       <c r="BI43" s="38"/>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>135810</v>
       </c>
@@ -60751,7 +60751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>136411</v>
       </c>
@@ -60917,7 +60917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>147325</v>
       </c>
@@ -61083,7 +61083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>169904</v>
       </c>
@@ -61249,7 +61249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>207583</v>
       </c>
@@ -61417,7 +61417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>212150</v>
       </c>
@@ -61581,7 +61581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>275278</v>
       </c>
@@ -61747,7 +61747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>307065</v>
       </c>
@@ -61915,7 +61915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>309619</v>
       </c>
@@ -62083,7 +62083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>315231</v>
       </c>
@@ -62251,7 +62251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>320012</v>
       </c>
@@ -62419,7 +62419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>320751</v>
       </c>
@@ -62585,7 +62585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>320848</v>
       </c>
@@ -62753,7 +62753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>325199</v>
       </c>
@@ -62921,7 +62921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>326264</v>
       </c>
@@ -63087,7 +63087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>329125</v>
       </c>
@@ -63253,7 +63253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>329804</v>
       </c>
@@ -63421,7 +63421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>331751</v>
       </c>
@@ -63585,7 +63585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>331768</v>
       </c>
@@ -63751,7 +63751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>333706</v>
       </c>
@@ -63919,7 +63919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>335155</v>
       </c>
@@ -64087,7 +64087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>347661</v>
       </c>
@@ -64253,7 +64253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>381582</v>
       </c>
@@ -64421,7 +64421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>383943</v>
       </c>
@@ -64589,7 +64589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>385115</v>
       </c>
@@ -64755,7 +64755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>390120</v>
       </c>
@@ -64923,7 +64923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>392270</v>
       </c>
@@ -65089,7 +65089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>397180</v>
       </c>
@@ -65255,7 +65255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>588149</v>
       </c>
@@ -65421,7 +65421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>600094</v>
       </c>
@@ -65587,7 +65587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>607332</v>
       </c>
@@ -65753,7 +65753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>607686</v>
       </c>
@@ -65921,7 +65921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>608962</v>
       </c>
@@ -66085,7 +66085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>615075</v>
       </c>
@@ -66253,7 +66253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>630306</v>
       </c>
@@ -66419,7 +66419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>639098</v>
       </c>
@@ -66585,7 +66585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>642871</v>
       </c>
@@ -66749,7 +66749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>975904</v>
       </c>
@@ -66917,7 +66917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>1015943</v>
       </c>
@@ -67081,7 +67081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="21">
         <v>42577</v>
       </c>
@@ -67211,7 +67211,7 @@
       <c r="BI83" s="43"/>
       <c r="BJ83" s="43"/>
     </row>
-    <row r="84" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="21">
         <v>110649</v>
       </c>
@@ -67347,7 +67347,7 @@
       <c r="BI84" s="43"/>
       <c r="BJ84" s="43"/>
     </row>
-    <row r="85" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="21">
         <v>110704</v>
       </c>
@@ -67477,7 +67477,7 @@
       <c r="BI85" s="43"/>
       <c r="BJ85" s="43"/>
     </row>
-    <row r="86" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="21">
         <v>111332</v>
       </c>
@@ -67610,7 +67610,7 @@
       <c r="BI86" s="43"/>
       <c r="BJ86" s="43"/>
     </row>
-    <row r="87" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="21">
         <v>135039</v>
       </c>
@@ -67743,7 +67743,7 @@
       <c r="BI87" s="43"/>
       <c r="BJ87" s="43"/>
     </row>
-    <row r="88" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
         <v>135613</v>
       </c>
@@ -67876,7 +67876,7 @@
       <c r="BI88" s="43"/>
       <c r="BJ88" s="43"/>
     </row>
-    <row r="89" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
         <v>136794</v>
       </c>
@@ -68006,7 +68006,7 @@
       <c r="BI89" s="43"/>
       <c r="BJ89" s="43"/>
     </row>
-    <row r="90" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
         <v>138111</v>
       </c>
@@ -68139,7 +68139,7 @@
       <c r="BI90" s="43"/>
       <c r="BJ90" s="43"/>
     </row>
-    <row r="91" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
         <v>138950</v>
       </c>
@@ -68269,7 +68269,7 @@
       <c r="BI91" s="43"/>
       <c r="BJ91" s="43"/>
     </row>
-    <row r="92" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
         <v>139021</v>
       </c>
@@ -68399,7 +68399,7 @@
       <c r="BI92" s="43"/>
       <c r="BJ92" s="43"/>
     </row>
-    <row r="93" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
         <v>140265</v>
       </c>
@@ -68532,7 +68532,7 @@
       <c r="BI93" s="43"/>
       <c r="BJ93" s="43"/>
     </row>
-    <row r="94" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
         <v>140751</v>
       </c>
@@ -68659,7 +68659,7 @@
       <c r="BI94" s="43"/>
       <c r="BJ94" s="43"/>
     </row>
-    <row r="95" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
         <v>140769</v>
       </c>
@@ -68795,7 +68795,7 @@
       <c r="BI95" s="43"/>
       <c r="BJ95" s="43"/>
     </row>
-    <row r="96" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>141455</v>
       </c>
@@ -68928,7 +68928,7 @@
       <c r="BI96" s="43"/>
       <c r="BJ96" s="43"/>
     </row>
-    <row r="97" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <v>143105</v>
       </c>
@@ -69055,7 +69055,7 @@
       <c r="BI97" s="43"/>
       <c r="BJ97" s="43"/>
     </row>
-    <row r="98" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="21">
         <v>143429</v>
       </c>
@@ -69188,7 +69188,7 @@
       <c r="BI98" s="43"/>
       <c r="BJ98" s="43"/>
     </row>
-    <row r="99" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="21">
         <v>144648</v>
       </c>
@@ -69321,7 +69321,7 @@
       <c r="BI99" s="43"/>
       <c r="BJ99" s="43"/>
     </row>
-    <row r="100" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="21">
         <v>146918</v>
       </c>
@@ -69450,7 +69450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="21">
         <v>147115</v>
       </c>
@@ -69576,7 +69576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="21">
         <v>150523</v>
       </c>
@@ -69708,7 +69708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="21">
         <v>150625</v>
       </c>
@@ -69834,7 +69834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="21">
         <v>150819</v>
       </c>
@@ -69969,7 +69969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="21">
         <v>152122</v>
       </c>
@@ -70098,7 +70098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="21">
         <v>152390</v>
       </c>
@@ -70233,7 +70233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="21">
         <v>158811</v>
       </c>
@@ -70365,7 +70365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="21">
         <v>160325</v>
       </c>
@@ -70498,7 +70498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="21">
         <v>166748</v>
       </c>
@@ -70633,7 +70633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="21">
         <v>170134</v>
       </c>
@@ -70765,7 +70765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="21">
         <v>191282</v>
       </c>
@@ -70894,7 +70894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="21">
         <v>199928</v>
       </c>
@@ -71026,7 +71026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="21">
         <v>200025</v>
       </c>
@@ -71161,7 +71161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="21">
         <v>200953</v>
       </c>
@@ -71294,7 +71294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="21">
         <v>202382</v>
       </c>
@@ -71426,7 +71426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="21">
         <v>203673</v>
       </c>
@@ -71559,7 +71559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="21">
         <v>203748</v>
       </c>
@@ -71689,7 +71689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <v>204617</v>
       </c>
@@ -71821,7 +71821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="21">
         <v>207616</v>
       </c>
@@ -71956,7 +71956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="21">
         <v>208623</v>
       </c>
@@ -72088,7 +72088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
         <v>209414</v>
       </c>
@@ -72220,7 +72220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="21">
         <v>210015</v>
       </c>
@@ -72355,7 +72355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="21">
         <v>213028</v>
       </c>
@@ -72490,7 +72490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="21">
         <v>213736</v>
       </c>
@@ -72625,7 +72625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="21">
         <v>259768</v>
       </c>
@@ -72757,7 +72757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="21">
         <v>276474</v>
       </c>
@@ -72886,7 +72886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="21">
         <v>306888</v>
       </c>
@@ -73018,7 +73018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="21">
         <v>306925</v>
       </c>
@@ -73153,7 +73153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="21">
         <v>307020</v>
       </c>
@@ -73288,7 +73288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="21">
         <v>308354</v>
       </c>
@@ -73420,7 +73420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="21">
         <v>309864</v>
       </c>
@@ -73553,7 +73553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="21">
         <v>309910</v>
       </c>
@@ -73688,7 +73688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="21">
         <v>310272</v>
       </c>
@@ -73820,7 +73820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="21">
         <v>310332</v>
       </c>
@@ -73952,7 +73952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="21">
         <v>311141</v>
       </c>
@@ -74081,7 +74081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="21">
         <v>312829</v>
       </c>
@@ -74210,7 +74210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="21">
         <v>314930</v>
       </c>
@@ -74342,7 +74342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="21">
         <v>316051</v>
       </c>
@@ -74474,7 +74474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="21">
         <v>316455</v>
       </c>
@@ -74606,7 +74606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="23">
         <v>317076</v>
       </c>
@@ -74735,7 +74735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="21">
         <v>318099</v>
       </c>
@@ -74867,7 +74867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="21">
         <v>318630</v>
       </c>
@@ -74999,7 +74999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="21">
         <v>318701</v>
       </c>
@@ -75128,7 +75128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="21">
         <v>318875</v>
       </c>
@@ -75258,7 +75258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="21">
         <v>319036</v>
       </c>
@@ -75390,7 +75390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="21">
         <v>319214</v>
       </c>
@@ -75522,7 +75522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="21">
         <v>320411</v>
       </c>
@@ -75651,7 +75651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="21">
         <v>320497</v>
       </c>
@@ -75783,7 +75783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="21">
         <v>321139</v>
       </c>
@@ -75912,7 +75912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="21">
         <v>321311</v>
       </c>
@@ -76044,7 +76044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="21">
         <v>322823</v>
       </c>
@@ -76178,7 +76178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="21">
         <v>323749</v>
       </c>
@@ -76306,7 +76306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="21">
         <v>324099</v>
       </c>
@@ -76438,7 +76438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="21">
         <v>325337</v>
       </c>
@@ -76566,7 +76566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="21">
         <v>326142</v>
       </c>
@@ -76697,7 +76697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="21">
         <v>326226</v>
       </c>
@@ -76831,7 +76831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="21">
         <v>328773</v>
       </c>
@@ -76965,7 +76965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="21">
         <v>332494</v>
       </c>
@@ -77096,7 +77096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="21">
         <v>332573</v>
       </c>
@@ -77227,7 +77227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="21">
         <v>333313</v>
       </c>
@@ -77361,7 +77361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="21">
         <v>334589</v>
       </c>
@@ -77495,7 +77495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="21">
         <v>335299</v>
       </c>
@@ -77623,7 +77623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="21">
         <v>336875</v>
       </c>
@@ -77757,7 +77757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="21">
         <v>336884</v>
       </c>
@@ -77888,7 +77888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="21">
         <v>337685</v>
       </c>
@@ -78019,7 +78019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="21">
         <v>337917</v>
       </c>
@@ -78147,7 +78147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="21">
         <v>339100</v>
       </c>
@@ -78278,7 +78278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="21">
         <v>339949</v>
       </c>
@@ -78409,7 +78409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="21">
         <v>341884</v>
       </c>
@@ -78543,7 +78543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="21">
         <v>343630</v>
       </c>
@@ -78677,7 +78677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="21">
         <v>344816</v>
       </c>
@@ -78811,7 +78811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="21">
         <v>347384</v>
       </c>
@@ -78939,7 +78939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="21">
         <v>347495</v>
       </c>
@@ -79067,7 +79067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="21">
         <v>369714</v>
       </c>
@@ -79198,7 +79198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="21">
         <v>370862</v>
       </c>
@@ -79329,7 +79329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="21">
         <v>378361</v>
       </c>
@@ -79460,7 +79460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="21">
         <v>381440</v>
       </c>
@@ -79588,7 +79588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="21">
         <v>381867</v>
       </c>
@@ -79719,7 +79719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="21">
         <v>382190</v>
       </c>
@@ -79847,7 +79847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="21">
         <v>384195</v>
       </c>
@@ -79978,7 +79978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="21">
         <v>384256</v>
       </c>
@@ -80109,7 +80109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="21">
         <v>390221</v>
       </c>
@@ -80240,7 +80240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="21">
         <v>390448</v>
       </c>
@@ -80371,7 +80371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="21">
         <v>390876</v>
       </c>
@@ -80502,7 +80502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A185" s="27">
         <v>394654</v>
       </c>
@@ -80636,7 +80636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A186" s="27">
         <v>470368</v>
       </c>
@@ -80770,7 +80770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A187" s="27">
         <v>567458</v>
       </c>
@@ -80901,7 +80901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A188" s="27">
         <v>573094</v>
       </c>
@@ -81032,7 +81032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A189" s="27">
         <v>578758</v>
       </c>
@@ -81163,7 +81163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A190" s="27">
         <v>583885</v>
       </c>
@@ -81297,7 +81297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A191" s="27">
         <v>599687</v>
       </c>
@@ -81431,7 +81431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A192" s="27">
         <v>599897</v>
       </c>
@@ -81562,7 +81562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A193" s="27">
         <v>601464</v>
       </c>
@@ -81693,7 +81693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A194" s="27">
         <v>602475</v>
       </c>
@@ -81824,7 +81824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A195" s="27">
         <v>603049</v>
       </c>
@@ -81955,7 +81955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A196" s="27">
         <v>603970</v>
       </c>
@@ -82083,7 +82083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A197" s="27">
         <v>604414</v>
       </c>
@@ -82217,7 +82217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A198" s="27">
         <v>604589</v>
       </c>
@@ -82348,7 +82348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A199" s="27">
         <v>604596</v>
       </c>
@@ -82479,7 +82479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A200" s="27">
         <v>607049</v>
       </c>
@@ -82607,7 +82607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A201" s="27">
         <v>608486</v>
       </c>
@@ -82738,7 +82738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A202" s="27">
         <v>608895</v>
       </c>
@@ -82872,7 +82872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A203" s="27">
         <v>610013</v>
       </c>
@@ -83003,7 +83003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A204" s="27">
         <v>611640</v>
       </c>
@@ -83134,7 +83134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A205" s="27">
         <v>612251</v>
       </c>
@@ -83268,7 +83268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A206" s="27">
         <v>613129</v>
       </c>
@@ -83399,7 +83399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A207" s="27">
         <v>613450</v>
       </c>
@@ -83530,7 +83530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A208" s="27">
         <v>614613</v>
       </c>
@@ -83664,7 +83664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A209" s="27">
         <v>614666</v>
       </c>
@@ -83798,7 +83798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A210" s="27">
         <v>617305</v>
       </c>
@@ -83929,7 +83929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A211" s="27">
         <v>619305</v>
       </c>
@@ -84060,7 +84060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A212" s="27">
         <v>619516</v>
       </c>
@@ -84191,7 +84191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A213" s="27">
         <v>620411</v>
       </c>
@@ -84319,7 +84319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A214" s="27">
         <v>620445</v>
       </c>
@@ -84450,7 +84450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A215" s="27">
         <v>621358</v>
       </c>
@@ -84581,7 +84581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A216" s="27">
         <v>622051</v>
       </c>
@@ -84715,7 +84715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A217" s="27">
         <v>622083</v>
       </c>
@@ -84846,7 +84846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A218" s="27">
         <v>622212</v>
       </c>
@@ -84974,7 +84974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A219" s="27">
         <v>622974</v>
       </c>
@@ -85108,7 +85108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A220" s="27">
         <v>624617</v>
       </c>
@@ -85239,7 +85239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A221" s="27">
         <v>625596</v>
       </c>
@@ -85367,7 +85367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A222" s="27">
         <v>628028</v>
       </c>
@@ -85501,7 +85501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A223" s="27">
         <v>629560</v>
       </c>
@@ -85629,7 +85629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A224" s="27">
         <v>629727</v>
       </c>
@@ -85760,7 +85760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A225" s="27">
         <v>630549</v>
       </c>
@@ -85891,7 +85891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A226" s="27">
         <v>631167</v>
       </c>
@@ -86025,7 +86025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A227" s="27">
         <v>631736</v>
       </c>
@@ -86156,7 +86156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A228" s="27">
         <v>631877</v>
       </c>
@@ -86287,7 +86287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A229" s="27">
         <v>635021</v>
       </c>
@@ -86418,7 +86418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A230" s="27">
         <v>636142</v>
       </c>
@@ -86549,7 +86549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A231" s="27">
         <v>637926</v>
       </c>
@@ -86680,7 +86680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A232" s="27">
         <v>638902</v>
       </c>
@@ -86814,7 +86814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A233" s="27">
         <v>639057</v>
       </c>
@@ -86948,7 +86948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A234" s="27">
         <v>640023</v>
       </c>
@@ -87082,7 +87082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A235" s="27">
         <v>640422</v>
       </c>
@@ -87216,7 +87216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A236" s="27">
         <v>641220</v>
       </c>
@@ -87347,7 +87347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A237" s="27">
         <v>644231</v>
       </c>
@@ -87472,7 +87472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A238" s="27">
         <v>645947</v>
       </c>
@@ -87600,7 +87600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A239" s="27">
         <v>754074</v>
       </c>
@@ -87731,7 +87731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A240" s="27">
         <v>870434</v>
       </c>
@@ -87865,7 +87865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A241" s="27">
         <v>872574</v>
       </c>
@@ -87993,7 +87993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A242" s="27">
         <v>881672</v>
       </c>
@@ -88124,7 +88124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A243" s="27">
         <v>898265</v>
       </c>
@@ -88252,7 +88252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A244" s="27">
         <v>908046</v>
       </c>
@@ -88383,7 +88383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A245" s="27">
         <v>931586</v>
       </c>
@@ -88514,7 +88514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A246" s="27">
         <v>945191</v>
       </c>
@@ -88645,7 +88645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A247" s="27">
         <v>954825</v>
       </c>
@@ -88776,7 +88776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A248" s="27">
         <v>956086</v>
       </c>
@@ -88907,7 +88907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A249" s="27">
         <v>961025</v>
       </c>
@@ -89041,7 +89041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A250" s="27">
         <v>968007</v>
       </c>
@@ -89172,7 +89172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A251" s="27">
         <v>973700</v>
       </c>
@@ -89303,7 +89303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A252" s="27">
         <v>978940</v>
       </c>
@@ -89434,7 +89434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A253" s="27">
         <v>986338</v>
       </c>
@@ -89565,7 +89565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A254" s="15">
         <v>135921</v>
       </c>
@@ -89731,7 +89731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A255" s="15">
         <v>138265</v>
       </c>
@@ -89901,7 +89901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A256" s="15">
         <v>139329</v>
       </c>
@@ -90067,7 +90067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A257" s="15">
         <v>144109</v>
       </c>
@@ -90237,7 +90237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A258" s="15">
         <v>268960</v>
       </c>
@@ -90403,7 +90403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A259" s="15">
         <v>307116</v>
       </c>
@@ -90571,7 +90571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A260" s="15">
         <v>310441</v>
       </c>
@@ -90739,7 +90739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A261" s="15">
         <v>316394</v>
       </c>
@@ -90907,7 +90907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A262" s="15">
         <v>322054</v>
       </c>
@@ -91077,7 +91077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A263" s="15">
         <v>336775</v>
       </c>
@@ -91247,7 +91247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A264" s="15">
         <v>386578</v>
       </c>
@@ -91413,7 +91413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A265" s="15">
         <v>611421</v>
       </c>
@@ -91583,7 +91583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A266" s="15">
         <v>614293</v>
       </c>
@@ -91751,7 +91751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A267" s="15">
         <v>623190</v>
       </c>
@@ -91919,7 +91919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A268" s="15">
         <v>624773</v>
       </c>
@@ -92087,7 +92087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A269" s="19">
         <v>873569</v>
       </c>
@@ -92257,7 +92257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A270" s="15">
         <v>921675</v>
       </c>
@@ -92436,9 +92436,9 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="87" t="s">
         <v>82</v>
       </c>
@@ -92482,7 +92482,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="91">
         <v>1</v>
       </c>
@@ -92520,7 +92520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="91">
         <v>2</v>
       </c>
@@ -92558,7 +92558,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="91">
         <v>3</v>
       </c>
@@ -92596,7 +92596,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="91">
         <v>4</v>
       </c>
@@ -92634,7 +92634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="91">
         <v>5</v>
       </c>
@@ -92672,7 +92672,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="91">
         <v>6</v>
       </c>
@@ -92713,7 +92713,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="91">
         <v>7</v>
       </c>
@@ -92751,7 +92751,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="91">
         <v>8</v>
       </c>
@@ -92789,7 +92789,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="91">
         <v>9</v>
       </c>
@@ -92827,7 +92827,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="91">
         <v>10</v>
       </c>
@@ -92865,7 +92865,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="91">
         <v>11</v>
       </c>
@@ -92903,7 +92903,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="91">
         <v>12</v>
       </c>
@@ -92941,7 +92941,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="91">
         <v>13</v>
       </c>
@@ -92979,7 +92979,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="91">
         <v>14</v>
       </c>
@@ -93017,7 +93017,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="91">
         <v>15</v>
       </c>
@@ -93055,7 +93055,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
         <v>16</v>
       </c>
@@ -93093,7 +93093,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="91">
         <v>17</v>
       </c>
@@ -93131,7 +93131,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="91">
         <v>18</v>
       </c>
@@ -93169,7 +93169,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="91">
         <v>19</v>
       </c>
@@ -93207,7 +93207,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="91">
         <v>20</v>
       </c>
@@ -93245,7 +93245,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="91">
         <v>21</v>
       </c>
@@ -93283,7 +93283,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="91">
         <v>22</v>
       </c>
@@ -93321,7 +93321,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="91">
         <v>23</v>
       </c>
@@ -93359,7 +93359,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="91">
         <v>24</v>
       </c>
@@ -93400,7 +93400,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="91">
         <v>25</v>
       </c>
@@ -93441,7 +93441,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="91">
         <v>26</v>
       </c>
@@ -93479,7 +93479,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="91">
         <v>27</v>
       </c>
@@ -93520,7 +93520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="91">
         <v>28</v>
       </c>
@@ -93561,7 +93561,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="91">
         <v>29</v>
       </c>
@@ -93602,7 +93602,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="91">
         <v>30</v>
       </c>
@@ -93640,7 +93640,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="91">
         <v>31</v>
       </c>
@@ -93681,7 +93681,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="91">
         <v>32</v>
       </c>
@@ -93719,7 +93719,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="91">
         <v>33</v>
       </c>
@@ -93757,7 +93757,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="91">
         <v>34</v>
       </c>
@@ -93795,7 +93795,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="91">
         <v>35</v>
       </c>
@@ -93833,7 +93833,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="91">
         <v>36</v>
       </c>
@@ -93871,7 +93871,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="91">
         <v>37</v>
       </c>
@@ -93909,7 +93909,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="91">
         <v>38</v>
       </c>
@@ -93950,7 +93950,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="91">
         <v>39</v>
       </c>
@@ -93988,7 +93988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="91">
         <v>40</v>
       </c>
@@ -94029,7 +94029,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="91">
         <v>41</v>
       </c>
@@ -94067,7 +94067,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="91">
         <v>42</v>
       </c>
@@ -94105,7 +94105,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="91">
         <v>43</v>
       </c>
@@ -94131,7 +94131,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="91">
         <v>44</v>
       </c>
@@ -94169,7 +94169,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="91">
         <v>45</v>
       </c>
@@ -94207,7 +94207,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="91">
         <v>46</v>
       </c>
@@ -94248,7 +94248,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="91">
         <v>47</v>
       </c>
@@ -94286,7 +94286,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="91">
         <v>48</v>
       </c>
@@ -94324,7 +94324,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="91">
         <v>49</v>
       </c>
@@ -94365,7 +94365,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="91">
         <v>50</v>
       </c>
@@ -94403,7 +94403,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="91">
         <v>51</v>
       </c>
@@ -94441,7 +94441,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="91">
         <v>52</v>
       </c>
@@ -94479,7 +94479,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="91">
         <v>53</v>
       </c>
@@ -94517,7 +94517,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="91">
         <v>54</v>
       </c>
@@ -94555,7 +94555,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="91">
         <v>55</v>
       </c>
@@ -94593,7 +94593,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="91">
         <v>56</v>
       </c>
@@ -94634,7 +94634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="91">
         <v>57</v>
       </c>
@@ -94672,7 +94672,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="91">
         <v>58</v>
       </c>
@@ -94710,7 +94710,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="91">
         <v>59</v>
       </c>
@@ -94751,7 +94751,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="91">
         <v>60</v>
       </c>
@@ -94789,7 +94789,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="91">
         <v>61</v>
       </c>
@@ -94830,7 +94830,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="91">
         <v>62</v>
       </c>
@@ -94868,7 +94868,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="91">
         <v>63</v>
       </c>
@@ -94906,7 +94906,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="91">
         <v>64</v>
       </c>
@@ -94944,7 +94944,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="91">
         <v>65</v>
       </c>
@@ -94985,7 +94985,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="91">
         <v>66</v>
       </c>
@@ -95023,7 +95023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="91">
         <v>67</v>
       </c>
@@ -95061,7 +95061,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="91">
         <v>68</v>
       </c>
@@ -95102,7 +95102,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="91">
         <v>69</v>
       </c>
@@ -95140,7 +95140,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="91">
         <v>70</v>
       </c>
@@ -95166,7 +95166,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="91">
         <v>71</v>
       </c>
@@ -95204,7 +95204,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="91">
         <v>72</v>
       </c>
@@ -95242,7 +95242,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="91">
         <v>73</v>
       </c>
@@ -95283,7 +95283,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="91">
         <v>74</v>
       </c>
@@ -95324,7 +95324,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="91">
         <v>75</v>
       </c>
@@ -95362,7 +95362,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="91">
         <v>76</v>
       </c>
@@ -95403,7 +95403,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="91">
         <v>77</v>
       </c>
@@ -95441,7 +95441,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="91">
         <v>78</v>
       </c>
@@ -95479,7 +95479,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="91">
         <v>79</v>
       </c>
@@ -95520,7 +95520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="91">
         <v>80</v>
       </c>
@@ -95561,7 +95561,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="91">
         <v>81</v>
       </c>
@@ -95602,7 +95602,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="91">
         <v>82</v>
       </c>
@@ -95643,7 +95643,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="91">
         <v>83</v>
       </c>
@@ -95681,7 +95681,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="91">
         <v>84</v>
       </c>
@@ -95719,7 +95719,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="91">
         <v>85</v>
       </c>
@@ -95760,7 +95760,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="91">
         <v>86</v>
       </c>
@@ -95798,7 +95798,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="91">
         <v>87</v>
       </c>
@@ -95836,7 +95836,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="91">
         <v>88</v>
       </c>
@@ -95874,7 +95874,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="91">
         <v>89</v>
       </c>
@@ -95912,7 +95912,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="91">
         <v>90</v>
       </c>
@@ -95950,7 +95950,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="91">
         <v>91</v>
       </c>
@@ -95988,7 +95988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="91">
         <v>92</v>
       </c>
@@ -96026,7 +96026,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="91">
         <v>93</v>
       </c>
@@ -96067,7 +96067,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="91">
         <v>94</v>
       </c>
@@ -96105,7 +96105,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="91">
         <v>95</v>
       </c>
@@ -96143,7 +96143,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="91">
         <v>96</v>
       </c>
@@ -96181,7 +96181,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="91">
         <v>97</v>
       </c>
@@ -96219,7 +96219,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="91">
         <v>98</v>
       </c>
@@ -96257,7 +96257,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="91">
         <v>99</v>
       </c>
@@ -96298,7 +96298,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="91">
         <v>100</v>
       </c>
@@ -96336,7 +96336,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="91">
         <v>101</v>
       </c>
@@ -96374,7 +96374,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="91">
         <v>102</v>
       </c>
@@ -96412,7 +96412,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="91">
         <v>103</v>
       </c>
@@ -96453,7 +96453,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="91">
         <v>104</v>
       </c>
@@ -96494,7 +96494,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="91">
         <v>105</v>
       </c>
@@ -96532,7 +96532,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="91">
         <v>106</v>
       </c>
@@ -96570,7 +96570,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="91">
         <v>107</v>
       </c>
@@ -96608,7 +96608,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="91">
         <v>108</v>
       </c>
@@ -96646,7 +96646,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="91">
         <v>109</v>
       </c>
@@ -96687,7 +96687,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="91">
         <v>110</v>
       </c>
@@ -96725,7 +96725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="91">
         <v>111</v>
       </c>
@@ -96763,7 +96763,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="91">
         <v>112</v>
       </c>
@@ -96801,7 +96801,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="91">
         <v>113</v>
       </c>
@@ -96842,7 +96842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="91">
         <v>114</v>
       </c>
@@ -96883,7 +96883,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="91">
         <v>115</v>
       </c>
@@ -96921,7 +96921,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="91">
         <v>116</v>
       </c>
@@ -96959,7 +96959,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="91">
         <v>117</v>
       </c>
@@ -96997,7 +96997,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="91">
         <v>118</v>
       </c>
@@ -97035,7 +97035,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="91">
         <v>119</v>
       </c>
@@ -97073,7 +97073,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="91">
         <v>120</v>
       </c>
@@ -97111,7 +97111,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="91">
         <v>121</v>
       </c>
@@ -97149,7 +97149,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="91">
         <v>122</v>
       </c>
@@ -97187,7 +97187,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="91">
         <v>123</v>
       </c>
@@ -97225,7 +97225,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="91">
         <v>124</v>
       </c>
@@ -97263,7 +97263,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="91">
         <v>125</v>
       </c>
@@ -97301,7 +97301,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="91">
         <v>126</v>
       </c>
@@ -97339,7 +97339,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="91">
         <v>127</v>
       </c>
@@ -97380,7 +97380,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="91">
         <v>128</v>
       </c>
@@ -97418,7 +97418,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="91">
         <v>129</v>
       </c>
@@ -97456,7 +97456,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="91">
         <v>130</v>
       </c>
@@ -97494,7 +97494,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="91">
         <v>131</v>
       </c>
@@ -97532,7 +97532,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="91">
         <v>132</v>
       </c>
@@ -97570,7 +97570,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="91">
         <v>133</v>
       </c>
@@ -97608,7 +97608,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="91">
         <v>134</v>
       </c>
@@ -97646,7 +97646,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="91">
         <v>135</v>
       </c>
@@ -97687,7 +97687,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="91">
         <v>136</v>
       </c>
@@ -97725,7 +97725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="91">
         <v>137</v>
       </c>
@@ -97763,7 +97763,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="91">
         <v>138</v>
       </c>
@@ -97801,7 +97801,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="91">
         <v>139</v>
       </c>
@@ -97839,7 +97839,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="91">
         <v>140</v>
       </c>
@@ -97877,7 +97877,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="91">
         <v>141</v>
       </c>
@@ -97915,7 +97915,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="91">
         <v>142</v>
       </c>
@@ -97953,7 +97953,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="91">
         <v>143</v>
       </c>
@@ -97991,7 +97991,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="91">
         <v>144</v>
       </c>
@@ -98029,7 +98029,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="91">
         <v>145</v>
       </c>
@@ -98070,7 +98070,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="91">
         <v>146</v>
       </c>
@@ -98108,7 +98108,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="91">
         <v>147</v>
       </c>
@@ -98149,7 +98149,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="91">
         <v>148</v>
       </c>
@@ -98187,7 +98187,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="91">
         <v>149</v>
       </c>
@@ -98228,7 +98228,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="91">
         <v>150</v>
       </c>
@@ -98266,7 +98266,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="91">
         <v>151</v>
       </c>
@@ -98304,7 +98304,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="91">
         <v>152</v>
       </c>
@@ -98345,7 +98345,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="91">
         <v>153</v>
       </c>
@@ -98383,7 +98383,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="91">
         <v>154</v>
       </c>
@@ -98421,7 +98421,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="91">
         <v>155</v>
       </c>
@@ -98462,7 +98462,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="91">
         <v>156</v>
       </c>
@@ -98500,7 +98500,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="91">
         <v>157</v>
       </c>
@@ -98541,7 +98541,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="91">
         <v>158</v>
       </c>
@@ -98579,7 +98579,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="91">
         <v>159</v>
       </c>
@@ -98620,7 +98620,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="91">
         <v>160</v>
       </c>
@@ -98658,7 +98658,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="91">
         <v>161</v>
       </c>
@@ -98696,7 +98696,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="91">
         <v>162</v>
       </c>
@@ -98734,7 +98734,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="91">
         <v>163</v>
       </c>
@@ -98775,7 +98775,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="91">
         <v>164</v>
       </c>
@@ -98813,7 +98813,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="91">
         <v>165</v>
       </c>
@@ -98851,7 +98851,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="91">
         <v>166</v>
       </c>
@@ -98889,7 +98889,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="91">
         <v>167</v>
       </c>
@@ -98930,7 +98930,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="91">
         <v>168</v>
       </c>
@@ -98968,7 +98968,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="91">
         <v>169</v>
       </c>
@@ -99009,7 +99009,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="91">
         <v>170</v>
       </c>
@@ -99050,7 +99050,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="91">
         <v>171</v>
       </c>
@@ -99088,7 +99088,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="91">
         <v>172</v>
       </c>
@@ -99126,7 +99126,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="91">
         <v>173</v>
       </c>
@@ -99167,7 +99167,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="91">
         <v>174</v>
       </c>
@@ -99205,7 +99205,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="91">
         <v>175</v>
       </c>
@@ -99243,7 +99243,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="91">
         <v>176</v>
       </c>
@@ -99281,7 +99281,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="91">
         <v>177</v>
       </c>
@@ -99319,7 +99319,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="91">
         <v>178</v>
       </c>
@@ -99357,7 +99357,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="91">
         <v>179</v>
       </c>
@@ -99398,7 +99398,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="91">
         <v>180</v>
       </c>
@@ -99439,7 +99439,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="91">
         <v>181</v>
       </c>
@@ -99477,7 +99477,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="91">
         <v>182</v>
       </c>
@@ -99515,7 +99515,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="91">
         <v>183</v>
       </c>
@@ -99553,7 +99553,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="91">
         <v>184</v>
       </c>
@@ -99591,7 +99591,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="91">
         <v>185</v>
       </c>
@@ -99632,7 +99632,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="91">
         <v>186</v>
       </c>
@@ -99673,7 +99673,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="91">
         <v>187</v>
       </c>
@@ -99711,7 +99711,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="91">
         <v>188</v>
       </c>
@@ -99749,7 +99749,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="91">
         <v>189</v>
       </c>
@@ -99787,7 +99787,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="91">
         <v>190</v>
       </c>
@@ -99828,7 +99828,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="91">
         <v>191</v>
       </c>
@@ -99866,7 +99866,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="91">
         <v>192</v>
       </c>
@@ -99904,7 +99904,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="91">
         <v>193</v>
       </c>
@@ -99945,7 +99945,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="91">
         <v>194</v>
       </c>
@@ -99989,7 +99989,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="91">
         <v>195</v>
       </c>
@@ -100027,7 +100027,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="91">
         <v>196</v>
       </c>
@@ -100071,7 +100071,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="91">
         <v>197</v>
       </c>
@@ -100109,7 +100109,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="91">
         <v>198</v>
       </c>
@@ -100147,7 +100147,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="91">
         <v>199</v>
       </c>
@@ -100185,7 +100185,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="91">
         <v>200</v>
       </c>
@@ -100223,7 +100223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="91">
         <v>201</v>
       </c>
@@ -100261,7 +100261,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="91">
         <v>202</v>
       </c>
@@ -100299,7 +100299,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="91">
         <v>203</v>
       </c>
@@ -100337,7 +100337,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="91">
         <v>204</v>
       </c>
@@ -100378,7 +100378,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="91">
         <v>205</v>
       </c>
@@ -100419,7 +100419,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="91">
         <v>206</v>
       </c>
@@ -100457,7 +100457,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="91">
         <v>207</v>
       </c>
@@ -100495,7 +100495,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="91">
         <v>208</v>
       </c>
@@ -100533,7 +100533,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="91">
         <v>209</v>
       </c>
@@ -100571,7 +100571,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="91">
         <v>210</v>
       </c>
@@ -100609,7 +100609,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="91">
         <v>211</v>
       </c>
@@ -100647,7 +100647,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="91">
         <v>212</v>
       </c>
@@ -100685,7 +100685,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="91">
         <v>213</v>
       </c>
@@ -100723,7 +100723,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="91">
         <v>214</v>
       </c>
@@ -100761,7 +100761,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="91">
         <v>215</v>
       </c>
@@ -100799,7 +100799,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="91">
         <v>216</v>
       </c>
@@ -100837,7 +100837,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="91">
         <v>217</v>
       </c>
@@ -100875,7 +100875,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="91">
         <v>218</v>
       </c>
@@ -100916,7 +100916,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="91">
         <v>219</v>
       </c>
@@ -100954,7 +100954,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="91">
         <v>220</v>
       </c>
@@ -100995,7 +100995,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="91">
         <v>221</v>
       </c>
@@ -101033,7 +101033,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="91">
         <v>222</v>
       </c>
@@ -101071,7 +101071,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="91">
         <v>223</v>
       </c>
@@ -101109,7 +101109,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="91">
         <v>224</v>
       </c>
@@ -101147,7 +101147,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="91">
         <v>225</v>
       </c>
@@ -101185,7 +101185,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="91">
         <v>226</v>
       </c>
@@ -101223,7 +101223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="91">
         <v>227</v>
       </c>
@@ -101264,7 +101264,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="91">
         <v>228</v>
       </c>
@@ -101302,7 +101302,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="91">
         <v>229</v>
       </c>
@@ -101340,7 +101340,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="91">
         <v>230</v>
       </c>
@@ -101378,7 +101378,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="91">
         <v>231</v>
       </c>
@@ -101416,7 +101416,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="91">
         <v>232</v>
       </c>
@@ -101454,7 +101454,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="91">
         <v>233</v>
       </c>
@@ -101492,7 +101492,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="91">
         <v>234</v>
       </c>
@@ -101530,7 +101530,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="91">
         <v>235</v>
       </c>
@@ -101571,7 +101571,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="91">
         <v>236</v>
       </c>
@@ -101609,7 +101609,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="91">
         <v>237</v>
       </c>
@@ -101647,7 +101647,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="91">
         <v>238</v>
       </c>
@@ -101685,7 +101685,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="91">
         <v>239</v>
       </c>
@@ -101726,7 +101726,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="91">
         <v>240</v>
       </c>
@@ -101764,7 +101764,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="91">
         <v>241</v>
       </c>
@@ -101805,7 +101805,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="91">
         <v>242</v>
       </c>
@@ -101843,7 +101843,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="91">
         <v>243</v>
       </c>
@@ -101881,7 +101881,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="91">
         <v>244</v>
       </c>
@@ -101919,7 +101919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="91">
         <v>245</v>
       </c>
@@ -101957,7 +101957,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="91">
         <v>246</v>
       </c>
@@ -102001,7 +102001,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="91">
         <v>247</v>
       </c>
@@ -102039,7 +102039,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="91">
         <v>248</v>
       </c>
@@ -102080,7 +102080,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="91">
         <v>249</v>
       </c>
@@ -102118,7 +102118,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="91">
         <v>250</v>
       </c>
@@ -102159,7 +102159,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="91">
         <v>251</v>
       </c>
@@ -102200,7 +102200,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="91">
         <v>252</v>
       </c>
@@ -102238,7 +102238,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="91">
         <v>253</v>
       </c>
@@ -102276,7 +102276,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="91">
         <v>254</v>
       </c>
@@ -102314,7 +102314,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="91">
         <v>255</v>
       </c>
@@ -102352,7 +102352,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="91">
         <v>256</v>
       </c>
@@ -102390,7 +102390,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="91">
         <v>257</v>
       </c>
@@ -102428,7 +102428,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="91">
         <v>258</v>
       </c>
@@ -102466,7 +102466,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="91">
         <v>259</v>
       </c>
@@ -102504,7 +102504,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="91">
         <v>260</v>
       </c>
@@ -102545,7 +102545,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="91">
         <v>261</v>
       </c>
@@ -102583,7 +102583,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="91">
         <v>262</v>
       </c>
@@ -102621,7 +102621,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="91">
         <v>263</v>
       </c>
@@ -102662,7 +102662,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="91">
         <v>264</v>
       </c>
@@ -102700,7 +102700,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="91">
         <v>265</v>
       </c>
@@ -102738,7 +102738,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="91">
         <v>266</v>
       </c>
@@ -102776,7 +102776,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="91">
         <v>267</v>
       </c>
@@ -102814,7 +102814,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="91">
         <v>268</v>
       </c>
@@ -102852,7 +102852,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="91">
         <v>269</v>
       </c>

--- a/src/backend/the_only_excel.xlsx
+++ b/src/backend/the_only_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TFG\src\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD015F-EABD-46ED-9519-0F3DCBB4D6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C085BC-8DB7-4E25-8332-9A12DC970B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1526,10 +1526,10 @@
   <dimension ref="A1:BQ270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AT249" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BM271" sqref="BM271"/>
+      <selection pane="bottomRight" activeCell="BM247" sqref="BM247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/src/backend/the_only_excel.xlsx
+++ b/src/backend/the_only_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hlocal\TFG\src\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B1AC09-0F79-4570-8F64-7BB6664AC8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E911EEBE-91BC-488B-926E-E843223AC8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="100" windowWidth="14830" windowHeight="10240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPSS" sheetId="2" r:id="rId1"/>
@@ -1523,10 +1523,10 @@
   <dimension ref="A1:BP270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL252" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B268" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX258" sqref="AX258"/>
+      <selection pane="bottomRight" activeCell="A271" sqref="A271:XFD271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.08203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
